--- a/Eskaysoft_Testcase.xlsx
+++ b/Eskaysoft_Testcase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>S.No.</t>
   </si>
@@ -31,10 +31,70 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Schedule Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Drop Down </t>
+  </si>
+  <si>
+    <t>Taking 0 value</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Option- Schedule Name </t>
+  </si>
+  <si>
+    <t>Auto Population Not Required</t>
+  </si>
+  <si>
+    <t>Showing Auto Population</t>
+  </si>
+  <si>
+    <t>Search Option - Schedule Type</t>
+  </si>
+  <si>
+    <t>Should Be Populated as per Schedule Type Selected</t>
+  </si>
+  <si>
+    <t>Not Working Properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete  Button Clicked </t>
+  </si>
+  <si>
+    <t>Confirmation Should Ask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Asking </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Table Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Working </t>
+  </si>
+  <si>
+    <t>Schedule Type Search</t>
+  </si>
+  <si>
+    <t>Table Display-Scroll Down</t>
+  </si>
+  <si>
+    <t>Must Work</t>
+  </si>
+  <si>
+    <t>Display  Alphabetically</t>
+  </si>
+  <si>
+    <t>Not Displaying</t>
   </si>
 </sst>
 </file>
@@ -858,17 +918,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -882,10 +942,129 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Eskaysoft_Testcase.xlsx
+++ b/Eskaysoft_Testcase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>S.No.</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Should Be Populated as per Schedule Type Selected</t>
   </si>
   <si>
-    <t>Not Working Properly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete  Button Clicked </t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve">Not Working </t>
   </si>
   <si>
-    <t>Schedule Type Search</t>
-  </si>
-  <si>
     <t>Table Display-Scroll Down</t>
   </si>
   <si>
@@ -95,6 +89,57 @@
   </si>
   <si>
     <t>Not Displaying</t>
+  </si>
+  <si>
+    <t>Arrow Keys  Should Work</t>
+  </si>
+  <si>
+    <t>Not Working Properly when Trading or Profit and Loss Option Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Delete Button  Clicked </t>
+  </si>
+  <si>
+    <t>Schedule Deleted Message Shoud  Come</t>
+  </si>
+  <si>
+    <t>Schedule Saved</t>
+  </si>
+  <si>
+    <t>Table column sorting</t>
+  </si>
+  <si>
+    <t>Table column should sort when clicked on column lable</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Short Cut Key for Save and Reset Buttons</t>
+  </si>
+  <si>
+    <t>New Enhancement</t>
+  </si>
+  <si>
+    <t>When enter pressed after a field val getting blank value</t>
+  </si>
+  <si>
+    <t>It should move to next field</t>
+  </si>
+  <si>
+    <t>Lables</t>
+  </si>
+  <si>
+    <t>All Lables Must be in Proper Case</t>
+  </si>
+  <si>
+    <t>Primary Field( Schedule Name)</t>
+  </si>
+  <si>
+    <t>Must Be in Capital Letter</t>
   </si>
 </sst>
 </file>
@@ -579,10 +624,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,153 +972,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
